--- a/Notes/Spring2021/Meta_DPI_results.xlsx
+++ b/Notes/Spring2021/Meta_DPI_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Research_Evan/Raji_Summer2019_atom/Notes/Spring2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A86A91-3EB2-6C46-A524-B2F5D7558C62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5885D8D-11F9-E044-A4B5-1613B1A58B37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictor " sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="PR curve" sheetId="7" r:id="rId7"/>
     <sheet name="ROC-Meta-DPi vs vorffipmeta-ppi" sheetId="8" r:id="rId8"/>
     <sheet name="Pr -meta-dpi vs vorfipmetta-ppi" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="324">
   <si>
     <t>Leave one out</t>
   </si>
@@ -1007,6 +1007,15 @@
   <si>
     <t>CI</t>
   </si>
+  <si>
+    <t>Global test p-value: Matrix LSL' is singular</t>
+  </si>
+  <si>
+    <t>meta_ppisp</t>
+  </si>
+  <si>
+    <t>vorffip</t>
+  </si>
 </sst>
 </file>
 
@@ -1099,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1120,7 +1129,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2685,6 +2697,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900860A-BB38-904B-897D-7753E97477D6}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4982,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5120,11 +5196,11 @@
         <v>0.16452769286626015</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:T3" si="1">STDEV(C2:C225)</f>
+        <f>STDEV(C2:C225)</f>
         <v>0.14873045613383024</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q3:T3" si="1">STDEV(D2:D225)</f>
         <v>0.20617435596486861</v>
       </c>
       <c r="S3">
@@ -5132,7 +5208,7 @@
         <v>0.15859876967026212</v>
       </c>
       <c r="T3">
-        <f t="shared" si="1"/>
+        <f>STDEV(F2:F225)</f>
         <v>0.14835796546973212</v>
       </c>
     </row>
@@ -5176,7 +5252,26 @@
       <c r="O4" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="P4" s="16"/>
+      <c r="P4" s="19">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P3,233)</f>
+        <v>2.1125604173948976E-2</v>
+      </c>
+      <c r="Q4" s="19">
+        <f t="shared" ref="Q4:T4" si="2">_xlfn.CONFIDENCE.NORM(0.05,Q3,233)</f>
+        <v>1.9097215126259857E-2</v>
+      </c>
+      <c r="R4" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6473098595463675E-2</v>
+      </c>
+      <c r="S4" s="19">
+        <f t="shared" si="2"/>
+        <v>2.0364321483877994E-2</v>
+      </c>
+      <c r="T4" s="19">
+        <f t="shared" si="2"/>
+        <v>1.9049386762589649E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -5368,6 +5463,8 @@
       <c r="M9" s="1">
         <v>0.62324899656196497</v>
       </c>
+      <c r="P9" s="17"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -5406,6 +5503,8 @@
       <c r="M10" s="1">
         <v>0.61088804562851295</v>
       </c>
+      <c r="P10" s="17"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -5444,6 +5543,8 @@
       <c r="M11" s="1">
         <v>0.56233480500774902</v>
       </c>
+      <c r="P11" s="17"/>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -5482,6 +5583,8 @@
       <c r="M12" s="1">
         <v>0.41844361028968602</v>
       </c>
+      <c r="P12" s="17"/>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5520,6 +5623,8 @@
       <c r="M13" s="1">
         <v>0.40555216463659399</v>
       </c>
+      <c r="P13" s="17"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -5558,6 +5663,8 @@
       <c r="M14" s="1">
         <v>0.498939777481052</v>
       </c>
+      <c r="P14" s="17"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -5596,6 +5703,8 @@
       <c r="M15" s="1">
         <v>0.77501146116877995</v>
       </c>
+      <c r="P15" s="17"/>
+      <c r="R15" s="18"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -5634,8 +5743,10 @@
       <c r="M16" s="1">
         <v>0.52349887268574202</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="17"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -5672,8 +5783,10 @@
       <c r="M17" s="1">
         <v>0.52480058177073596</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="17"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -5710,8 +5823,10 @@
       <c r="M18" s="1">
         <v>0.50954227531458396</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="17"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -5748,8 +5863,10 @@
       <c r="M19" s="1">
         <v>0.53219719108763497</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="17"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -5786,8 +5903,10 @@
       <c r="M20" s="1">
         <v>0.49232903845015102</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="17"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -5824,8 +5943,10 @@
       <c r="M21" s="1">
         <v>0.49127664296135298</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="17"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -5862,8 +5983,10 @@
       <c r="M22" s="1">
         <v>0.45787915961608899</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="17"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -5900,8 +6023,10 @@
       <c r="M23" s="1">
         <v>0.507444584478141</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="17"/>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -5938,8 +6063,10 @@
       <c r="M24" s="1">
         <v>4.9293891488405898E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="17"/>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -5976,8 +6103,10 @@
       <c r="M25" s="1">
         <v>0.58830275229357798</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="17"/>
+      <c r="R25" s="18"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -6014,8 +6143,10 @@
       <c r="M26" s="1">
         <v>0.46733165708950902</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="17"/>
+      <c r="R26" s="18"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -6052,8 +6183,10 @@
       <c r="M27" s="1">
         <v>0.40854392978891702</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="17"/>
+      <c r="R27" s="18"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -6090,8 +6223,10 @@
       <c r="M28" s="1">
         <v>0.32650026311303398</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="17"/>
+      <c r="R28" s="18"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>80</v>
       </c>
@@ -6128,8 +6263,10 @@
       <c r="M29" s="1">
         <v>0.469425501910396</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="17"/>
+      <c r="R29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
@@ -6166,8 +6303,10 @@
       <c r="M30" s="1">
         <v>0.54421110548556595</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" s="17"/>
+      <c r="R30" s="18"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -6204,8 +6343,10 @@
       <c r="M31" s="1">
         <v>0.496194132149953</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P31" s="17"/>
+      <c r="R31" s="18"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -6242,8 +6383,10 @@
       <c r="M32" s="1">
         <v>0.48045053212630201</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P32" s="17"/>
+      <c r="R32" s="18"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -6280,8 +6423,10 @@
       <c r="M33" s="1">
         <v>0.62938677506964402</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="17"/>
+      <c r="R33" s="18"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
@@ -6318,8 +6463,10 @@
       <c r="M34" s="1">
         <v>0.48733599180461801</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="17"/>
+      <c r="R34" s="18"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>86</v>
       </c>
@@ -6356,8 +6503,10 @@
       <c r="M35" s="1">
         <v>0.46081433399554</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="17"/>
+      <c r="R35" s="18"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -6394,8 +6543,10 @@
       <c r="M36" s="1">
         <v>0.48969403681062901</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="17"/>
+      <c r="R36" s="18"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
@@ -6432,8 +6583,10 @@
       <c r="M37" s="1">
         <v>0.18804904949151599</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="17"/>
+      <c r="R37" s="18"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -6470,8 +6623,10 @@
       <c r="M38" s="1">
         <v>0.63772892679622495</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="17"/>
+      <c r="R38" s="18"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -6508,8 +6663,10 @@
       <c r="M39" s="1">
         <v>0.38097837645537302</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="17"/>
+      <c r="R39" s="18"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>91</v>
       </c>
@@ -6546,8 +6703,10 @@
       <c r="M40" s="1">
         <v>0.53648793461720201</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P40" s="17"/>
+      <c r="R40" s="18"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -6584,8 +6743,10 @@
       <c r="M41" s="1">
         <v>0.33416940778146398</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P41" s="17"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
@@ -6622,8 +6783,10 @@
       <c r="M42" s="1">
         <v>0.54359931879507595</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P42" s="17"/>
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -6660,8 +6823,10 @@
       <c r="M43" s="1">
         <v>0.52044052814642905</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P43" s="17"/>
+      <c r="R43" s="18"/>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -6698,8 +6863,10 @@
       <c r="M44" s="1">
         <v>0.23127188071340701</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P44" s="17"/>
+      <c r="R44" s="18"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>96</v>
       </c>
@@ -6736,8 +6903,10 @@
       <c r="M45" s="1">
         <v>0.51233493777344397</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P45" s="17"/>
+      <c r="R45" s="18"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>97</v>
       </c>
@@ -6774,8 +6943,10 @@
       <c r="M46" s="1">
         <v>0.70917527080014697</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P46" s="17"/>
+      <c r="R46" s="18"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
@@ -6812,8 +6983,10 @@
       <c r="M47" s="1">
         <v>-9.2955391136467502E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P47" s="17"/>
+      <c r="R47" s="18"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>99</v>
       </c>
@@ -6850,8 +7023,10 @@
       <c r="M48" s="1">
         <v>0.53385274439490105</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P48" s="17"/>
+      <c r="R48" s="18"/>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -6888,8 +7063,10 @@
       <c r="M49" s="1">
         <v>0.36571607382389099</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P49" s="17"/>
+      <c r="R49" s="18"/>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -6926,8 +7103,10 @@
       <c r="M50" s="1">
         <v>0.54433051887262396</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P50" s="17"/>
+      <c r="R50" s="18"/>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>102</v>
       </c>
@@ -6964,8 +7143,10 @@
       <c r="M51" s="1">
         <v>0.109642436440209</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P51" s="17"/>
+      <c r="R51" s="18"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -7002,8 +7183,10 @@
       <c r="M52" s="1">
         <v>0.70196266524080697</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P52" s="17"/>
+      <c r="R52" s="18"/>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -7040,8 +7223,10 @@
       <c r="M53" s="1">
         <v>0.571912463122347</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="17"/>
+      <c r="R53" s="18"/>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
@@ -7078,8 +7263,10 @@
       <c r="M54" s="1">
         <v>0.43212250325562201</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P54" s="17"/>
+      <c r="R54" s="18"/>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -7116,8 +7303,10 @@
       <c r="M55" s="1">
         <v>0.51793465082093904</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P55" s="17"/>
+      <c r="R55" s="18"/>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -7154,8 +7343,10 @@
       <c r="M56" s="1">
         <v>0.46891044936971199</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P56" s="17"/>
+      <c r="R56" s="18"/>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
@@ -7192,8 +7383,10 @@
       <c r="M57" s="1">
         <v>0.25384923879012999</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P57" s="17"/>
+      <c r="R57" s="18"/>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>109</v>
       </c>
@@ -7230,8 +7423,10 @@
       <c r="M58" s="1">
         <v>0.64248263585415299</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P58" s="17"/>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
@@ -7268,8 +7463,10 @@
       <c r="M59" s="1">
         <v>0.52984344811751505</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P59" s="17"/>
+      <c r="R59" s="18"/>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>111</v>
       </c>
@@ -7306,8 +7503,10 @@
       <c r="M60" s="1">
         <v>0.31482875660105297</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P60" s="17"/>
+      <c r="R60" s="18"/>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
@@ -7344,8 +7543,10 @@
       <c r="M61" s="1">
         <v>0.32698851295313902</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P61" s="17"/>
+      <c r="R61" s="18"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>113</v>
       </c>
@@ -7382,8 +7583,10 @@
       <c r="M62" s="1">
         <v>0.45455243181899802</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P62" s="17"/>
+      <c r="R62" s="18"/>
+    </row>
+    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
@@ -7420,8 +7623,10 @@
       <c r="M63" s="1">
         <v>0.34297080524416201</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P63" s="17"/>
+      <c r="R63" s="18"/>
+    </row>
+    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -7458,8 +7663,10 @@
       <c r="M64" s="1">
         <v>0.55740497234252695</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P64" s="17"/>
+      <c r="R64" s="18"/>
+    </row>
+    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>116</v>
       </c>
@@ -7496,8 +7703,10 @@
       <c r="M65" s="1">
         <v>0.493086464326913</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P65" s="17"/>
+      <c r="R65" s="18"/>
+    </row>
+    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>117</v>
       </c>
@@ -7534,8 +7743,10 @@
       <c r="M66" s="1">
         <v>0.124034734589208</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P66" s="17"/>
+      <c r="R66" s="18"/>
+    </row>
+    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -7572,8 +7783,10 @@
       <c r="M67" s="1">
         <v>0.62119118580897803</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P67" s="17"/>
+      <c r="R67" s="18"/>
+    </row>
+    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
@@ -7610,8 +7823,10 @@
       <c r="M68" s="1">
         <v>0.25897656348723003</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P68" s="17"/>
+      <c r="R68" s="18"/>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
@@ -7648,8 +7863,10 @@
       <c r="M69" s="1">
         <v>4.0830963225196998E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P69" s="17"/>
+      <c r="R69" s="18"/>
+    </row>
+    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>121</v>
       </c>
@@ -7686,8 +7903,10 @@
       <c r="M70" s="1">
         <v>0.29397057842178698</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P70" s="17"/>
+      <c r="R70" s="18"/>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>122</v>
       </c>
@@ -7724,8 +7943,10 @@
       <c r="M71" s="1">
         <v>0.183820846514474</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P71" s="17"/>
+      <c r="R71" s="18"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>123</v>
       </c>
@@ -7762,8 +7983,10 @@
       <c r="M72" s="1">
         <v>-4.2345013291064298E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P72" s="17"/>
+      <c r="R72" s="18"/>
+    </row>
+    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>124</v>
       </c>
@@ -7800,8 +8023,10 @@
       <c r="M73" s="1">
         <v>0.403044615948361</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="17"/>
+      <c r="R73" s="18"/>
+    </row>
+    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>125</v>
       </c>
@@ -7838,8 +8063,10 @@
       <c r="M74" s="1">
         <v>0.34871506663231</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P74" s="17"/>
+      <c r="R74" s="18"/>
+    </row>
+    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>126</v>
       </c>
@@ -7876,8 +8103,10 @@
       <c r="M75" s="1">
         <v>0.60337543345421296</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P75" s="17"/>
+      <c r="R75" s="18"/>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>127</v>
       </c>
@@ -7914,8 +8143,10 @@
       <c r="M76" s="1">
         <v>0.13537487813416499</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P76" s="17"/>
+      <c r="R76" s="18"/>
+    </row>
+    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
@@ -7952,8 +8183,10 @@
       <c r="M77" s="1">
         <v>0.62651953931948901</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P77" s="17"/>
+      <c r="R77" s="18"/>
+    </row>
+    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>129</v>
       </c>
@@ -7990,8 +8223,10 @@
       <c r="M78" s="1">
         <v>0.58241606199190799</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P78" s="17"/>
+      <c r="R78" s="18"/>
+    </row>
+    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>130</v>
       </c>
@@ -8028,8 +8263,10 @@
       <c r="M79" s="1">
         <v>0.32826277345356097</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P79" s="17"/>
+      <c r="R79" s="18"/>
+    </row>
+    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>131</v>
       </c>
@@ -8066,8 +8303,10 @@
       <c r="M80" s="1">
         <v>0.32212478729454103</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P80" s="17"/>
+      <c r="R80" s="18"/>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>132</v>
       </c>
@@ -8104,8 +8343,10 @@
       <c r="M81" s="1">
         <v>0.447924419680093</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P81" s="17"/>
+      <c r="R81" s="18"/>
+    </row>
+    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
@@ -8142,8 +8383,10 @@
       <c r="M82" s="1">
         <v>0.240485868743121</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P82" s="17"/>
+      <c r="R82" s="18"/>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>134</v>
       </c>
@@ -8180,8 +8423,10 @@
       <c r="M83" s="1">
         <v>0.34056695801102499</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P83" s="17"/>
+      <c r="R83" s="18"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>135</v>
       </c>
@@ -8218,8 +8463,10 @@
       <c r="M84" s="1">
         <v>0.43219104412186499</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P84" s="17"/>
+      <c r="R84" s="18"/>
+    </row>
+    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>136</v>
       </c>
@@ -8256,8 +8503,10 @@
       <c r="M85" s="1">
         <v>0.50148567587482096</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P85" s="17"/>
+      <c r="R85" s="18"/>
+    </row>
+    <row r="86" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>137</v>
       </c>
@@ -8294,8 +8543,10 @@
       <c r="M86" s="1">
         <v>0.548221167128223</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P86" s="17"/>
+      <c r="R86" s="18"/>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>138</v>
       </c>
@@ -8332,8 +8583,10 @@
       <c r="M87" s="1">
         <v>0.22365102208347301</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P87" s="17"/>
+      <c r="R87" s="18"/>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>139</v>
       </c>
@@ -8370,8 +8623,10 @@
       <c r="M88" s="1">
         <v>0.70504168329651096</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P88" s="17"/>
+      <c r="R88" s="18"/>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>140</v>
       </c>
@@ -8408,8 +8663,10 @@
       <c r="M89" s="1">
         <v>0.422014179725126</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P89" s="17"/>
+      <c r="R89" s="18"/>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
@@ -8446,8 +8703,10 @@
       <c r="M90" s="1">
         <v>0.121767389007876</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P90" s="17"/>
+      <c r="R90" s="18"/>
+    </row>
+    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>142</v>
       </c>
@@ -8484,8 +8743,10 @@
       <c r="M91" s="1">
         <v>0.57034944041954405</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P91" s="17"/>
+      <c r="R91" s="18"/>
+    </row>
+    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>143</v>
       </c>
@@ -8522,8 +8783,10 @@
       <c r="M92" s="1">
         <v>0.44643524171003601</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P92" s="17"/>
+      <c r="R92" s="18"/>
+    </row>
+    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>144</v>
       </c>
@@ -8560,8 +8823,10 @@
       <c r="M93" s="1">
         <v>0.40469489461832497</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P93" s="17"/>
+      <c r="R93" s="18"/>
+    </row>
+    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>145</v>
       </c>
@@ -8598,8 +8863,10 @@
       <c r="M94" s="1">
         <v>0.461025642298932</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P94" s="17"/>
+      <c r="R94" s="18"/>
+    </row>
+    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
@@ -8636,8 +8903,10 @@
       <c r="M95" s="1">
         <v>0.539655035367956</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P95" s="17"/>
+      <c r="R95" s="18"/>
+    </row>
+    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>147</v>
       </c>
@@ -8674,8 +8943,10 @@
       <c r="M96" s="1">
         <v>0.71336339150504102</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P96" s="17"/>
+      <c r="R96" s="18"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>148</v>
       </c>
@@ -8712,8 +8983,10 @@
       <c r="M97" s="1">
         <v>0.48930592665026201</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P97" s="17"/>
+      <c r="R97" s="18"/>
+    </row>
+    <row r="98" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>149</v>
       </c>
@@ -8750,8 +9023,10 @@
       <c r="M98" s="1">
         <v>0.34884081537533501</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P98" s="17"/>
+      <c r="R98" s="18"/>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>150</v>
       </c>
@@ -8788,8 +9063,10 @@
       <c r="M99" s="1">
         <v>0.69874657748366897</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P99" s="17"/>
+      <c r="R99" s="18"/>
+    </row>
+    <row r="100" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>151</v>
       </c>
@@ -8826,8 +9103,10 @@
       <c r="M100" s="1">
         <v>0.256086611640851</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P100" s="17"/>
+      <c r="R100" s="18"/>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>152</v>
       </c>
@@ -8864,8 +9143,10 @@
       <c r="M101" s="1">
         <v>0.53696925077922697</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P101" s="17"/>
+      <c r="R101" s="18"/>
+    </row>
+    <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>153</v>
       </c>
@@ -8902,8 +9183,10 @@
       <c r="M102" s="1">
         <v>7.3819168827708601E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P102" s="17"/>
+      <c r="R102" s="18"/>
+    </row>
+    <row r="103" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>154</v>
       </c>
@@ -8940,8 +9223,10 @@
       <c r="M103" s="1">
         <v>0.59323381163555</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P103" s="17"/>
+      <c r="R103" s="18"/>
+    </row>
+    <row r="104" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>155</v>
       </c>
@@ -8978,8 +9263,10 @@
       <c r="M104" s="1">
         <v>0.39596913114287402</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P104" s="17"/>
+      <c r="R104" s="18"/>
+    </row>
+    <row r="105" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>156</v>
       </c>
@@ -9016,8 +9303,10 @@
       <c r="M105" s="1">
         <v>0.51539549438515198</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P105" s="17"/>
+      <c r="R105" s="18"/>
+    </row>
+    <row r="106" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>157</v>
       </c>
@@ -9054,8 +9343,10 @@
       <c r="M106" s="1">
         <v>0.62653229643613195</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P106" s="17"/>
+      <c r="R106" s="18"/>
+    </row>
+    <row r="107" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>158</v>
       </c>
@@ -9092,8 +9383,10 @@
       <c r="M107" s="1">
         <v>0.54601862549232405</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P107" s="17"/>
+      <c r="R107" s="18"/>
+    </row>
+    <row r="108" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>159</v>
       </c>
@@ -9130,8 +9423,10 @@
       <c r="M108" s="1">
         <v>0.66057283905326203</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P108" s="17"/>
+      <c r="R108" s="18"/>
+    </row>
+    <row r="109" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>160</v>
       </c>
@@ -9168,8 +9463,10 @@
       <c r="M109" s="1">
         <v>0.58938120702826502</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P109" s="17"/>
+      <c r="R109" s="18"/>
+    </row>
+    <row r="110" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -9206,8 +9503,10 @@
       <c r="M110" s="1">
         <v>0.323166115873953</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P110" s="17"/>
+      <c r="R110" s="18"/>
+    </row>
+    <row r="111" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>162</v>
       </c>
@@ -9244,8 +9543,10 @@
       <c r="M111" s="1">
         <v>0.38211329363962698</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P111" s="17"/>
+      <c r="R111" s="18"/>
+    </row>
+    <row r="112" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>163</v>
       </c>
@@ -9282,8 +9583,10 @@
       <c r="M112" s="1">
         <v>0.28305228141058197</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P112" s="17"/>
+      <c r="R112" s="18"/>
+    </row>
+    <row r="113" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>164</v>
       </c>
@@ -9320,8 +9623,10 @@
       <c r="M113" s="1">
         <v>0.49726869731852402</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P113" s="17"/>
+      <c r="R113" s="18"/>
+    </row>
+    <row r="114" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>165</v>
       </c>
@@ -9358,8 +9663,10 @@
       <c r="M114" s="1">
         <v>0.49656630960927001</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P114" s="17"/>
+      <c r="R114" s="18"/>
+    </row>
+    <row r="115" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>166</v>
       </c>
@@ -9396,8 +9703,10 @@
       <c r="M115" s="1">
         <v>8.50586424628961E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P115" s="17"/>
+      <c r="R115" s="18"/>
+    </row>
+    <row r="116" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>167</v>
       </c>
@@ -9434,8 +9743,10 @@
       <c r="M116" s="1">
         <v>0.64884007664263099</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P116" s="17"/>
+      <c r="R116" s="18"/>
+    </row>
+    <row r="117" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>168</v>
       </c>
@@ -9472,8 +9783,10 @@
       <c r="M117" s="1">
         <v>0.43285751499519798</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P117" s="17"/>
+      <c r="R117" s="18"/>
+    </row>
+    <row r="118" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>169</v>
       </c>
@@ -9510,8 +9823,10 @@
       <c r="M118" s="1">
         <v>0.64834279949062401</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P118" s="17"/>
+      <c r="R118" s="18"/>
+    </row>
+    <row r="119" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>170</v>
       </c>
@@ -9548,8 +9863,10 @@
       <c r="M119" s="1">
         <v>0.478091443733757</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P119" s="17"/>
+      <c r="R119" s="18"/>
+    </row>
+    <row r="120" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>171</v>
       </c>
@@ -9586,8 +9903,10 @@
       <c r="M120" s="1">
         <v>0.57642626534414698</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P120" s="17"/>
+      <c r="R120" s="18"/>
+    </row>
+    <row r="121" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>172</v>
       </c>
@@ -9624,8 +9943,10 @@
       <c r="M121" s="1">
         <v>0.72425825952053702</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P121" s="17"/>
+      <c r="R121" s="18"/>
+    </row>
+    <row r="122" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>173</v>
       </c>
@@ -9662,8 +9983,10 @@
       <c r="M122" s="1">
         <v>0.356941852291976</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P122" s="17"/>
+      <c r="R122" s="18"/>
+    </row>
+    <row r="123" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>174</v>
       </c>
@@ -9700,8 +10023,10 @@
       <c r="M123" s="1">
         <v>0.45468134483369299</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P123" s="17"/>
+      <c r="R123" s="18"/>
+    </row>
+    <row r="124" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>175</v>
       </c>
@@ -9738,8 +10063,10 @@
       <c r="M124" s="1">
         <v>0.41675663839989502</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P124" s="17"/>
+      <c r="R124" s="18"/>
+    </row>
+    <row r="125" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>176</v>
       </c>
@@ -9776,8 +10103,10 @@
       <c r="M125" s="1">
         <v>0.52941632194495103</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P125" s="17"/>
+      <c r="R125" s="18"/>
+    </row>
+    <row r="126" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>177</v>
       </c>
@@ -9814,8 +10143,10 @@
       <c r="M126" s="1">
         <v>0.43291158721689599</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P126" s="17"/>
+      <c r="R126" s="18"/>
+    </row>
+    <row r="127" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>178</v>
       </c>
@@ -9852,8 +10183,10 @@
       <c r="M127" s="1">
         <v>0.41224189265544298</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P127" s="17"/>
+      <c r="R127" s="18"/>
+    </row>
+    <row r="128" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>179</v>
       </c>
@@ -9890,8 +10223,10 @@
       <c r="M128" s="1">
         <v>0.36408450631892297</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P128" s="17"/>
+      <c r="R128" s="18"/>
+    </row>
+    <row r="129" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>180</v>
       </c>
@@ -9928,8 +10263,10 @@
       <c r="M129" s="1">
         <v>0.334750591040816</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P129" s="17"/>
+      <c r="R129" s="18"/>
+    </row>
+    <row r="130" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>181</v>
       </c>
@@ -9966,8 +10303,10 @@
       <c r="M130" s="1">
         <v>0.25502088701779502</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P130" s="17"/>
+      <c r="R130" s="18"/>
+    </row>
+    <row r="131" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>182</v>
       </c>
@@ -10004,8 +10343,10 @@
       <c r="M131" s="1">
         <v>0.34830932479975701</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P131" s="17"/>
+      <c r="R131" s="18"/>
+    </row>
+    <row r="132" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>183</v>
       </c>
@@ -10042,8 +10383,10 @@
       <c r="M132" s="1">
         <v>0.72587889340688405</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P132" s="17"/>
+      <c r="R132" s="18"/>
+    </row>
+    <row r="133" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>184</v>
       </c>
@@ -10080,8 +10423,10 @@
       <c r="M133" s="1">
         <v>0.64701544808262601</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P133" s="17"/>
+      <c r="R133" s="18"/>
+    </row>
+    <row r="134" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>185</v>
       </c>
@@ -10118,8 +10463,10 @@
       <c r="M134" s="1">
         <v>0.457833003225665</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P134" s="17"/>
+      <c r="R134" s="18"/>
+    </row>
+    <row r="135" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>186</v>
       </c>
@@ -10156,8 +10503,10 @@
       <c r="M135" s="1">
         <v>0.56494697573223096</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P135" s="17"/>
+      <c r="R135" s="18"/>
+    </row>
+    <row r="136" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>187</v>
       </c>
@@ -10194,8 +10543,10 @@
       <c r="M136" s="1">
         <v>0.52096576445175402</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P136" s="17"/>
+      <c r="R136" s="18"/>
+    </row>
+    <row r="137" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>188</v>
       </c>
@@ -10232,8 +10583,10 @@
       <c r="M137" s="1">
         <v>0.56061179312754295</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P137" s="17"/>
+      <c r="R137" s="18"/>
+    </row>
+    <row r="138" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>189</v>
       </c>
@@ -10270,8 +10623,10 @@
       <c r="M138" s="1">
         <v>0.36927869995676399</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P138" s="17"/>
+      <c r="R138" s="18"/>
+    </row>
+    <row r="139" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>190</v>
       </c>
@@ -10308,8 +10663,10 @@
       <c r="M139" s="1">
         <v>0.40351782675352998</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P139" s="17"/>
+      <c r="R139" s="18"/>
+    </row>
+    <row r="140" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>191</v>
       </c>
@@ -10346,8 +10703,10 @@
       <c r="M140" s="1">
         <v>0.43099483988390302</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P140" s="17"/>
+      <c r="R140" s="18"/>
+    </row>
+    <row r="141" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>192</v>
       </c>
@@ -10384,8 +10743,10 @@
       <c r="M141" s="1">
         <v>0.70868338689230104</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P141" s="17"/>
+      <c r="R141" s="18"/>
+    </row>
+    <row r="142" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>193</v>
       </c>
@@ -10422,8 +10783,10 @@
       <c r="M142" s="1">
         <v>0.39315293710385901</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P142" s="17"/>
+      <c r="R142" s="18"/>
+    </row>
+    <row r="143" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>194</v>
       </c>
@@ -10460,8 +10823,10 @@
       <c r="M143" s="1">
         <v>0.51820190832131896</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P143" s="17"/>
+      <c r="R143" s="18"/>
+    </row>
+    <row r="144" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>195</v>
       </c>
@@ -10498,8 +10863,10 @@
       <c r="M144" s="1">
         <v>0.54459110978895597</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P144" s="17"/>
+      <c r="R144" s="18"/>
+    </row>
+    <row r="145" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>196</v>
       </c>
@@ -10536,8 +10903,10 @@
       <c r="M145" s="1">
         <v>0.583917296878672</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P145" s="17"/>
+      <c r="R145" s="18"/>
+    </row>
+    <row r="146" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>197</v>
       </c>
@@ -10574,8 +10943,10 @@
       <c r="M146" s="1">
         <v>0.64459351965823497</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P146" s="17"/>
+      <c r="R146" s="18"/>
+    </row>
+    <row r="147" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>198</v>
       </c>
@@ -10612,8 +10983,10 @@
       <c r="M147" s="1">
         <v>0.37253764036304199</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P147" s="17"/>
+      <c r="R147" s="18"/>
+    </row>
+    <row r="148" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>199</v>
       </c>
@@ -10650,8 +11023,10 @@
       <c r="M148" s="1">
         <v>0.36396583148974299</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P148" s="17"/>
+      <c r="R148" s="18"/>
+    </row>
+    <row r="149" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>200</v>
       </c>
@@ -10688,8 +11063,10 @@
       <c r="M149" s="1">
         <v>0.494476533572141</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P149" s="17"/>
+      <c r="R149" s="18"/>
+    </row>
+    <row r="150" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>201</v>
       </c>
@@ -10726,8 +11103,10 @@
       <c r="M150" s="1">
         <v>0.27876523113620499</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P150" s="17"/>
+      <c r="R150" s="18"/>
+    </row>
+    <row r="151" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>202</v>
       </c>
@@ -10764,8 +11143,10 @@
       <c r="M151" s="1">
         <v>0.57559922559274601</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P151" s="17"/>
+      <c r="R151" s="18"/>
+    </row>
+    <row r="152" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>203</v>
       </c>
@@ -10802,8 +11183,10 @@
       <c r="M152" s="1">
         <v>0.47737150177199</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P152" s="17"/>
+      <c r="R152" s="18"/>
+    </row>
+    <row r="153" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>204</v>
       </c>
@@ -10840,8 +11223,10 @@
       <c r="M153" s="1">
         <v>0.575816799631098</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P153" s="17"/>
+      <c r="R153" s="18"/>
+    </row>
+    <row r="154" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>205</v>
       </c>
@@ -10878,8 +11263,10 @@
       <c r="M154" s="1">
         <v>0.46136413161286999</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P154" s="17"/>
+      <c r="R154" s="18"/>
+    </row>
+    <row r="155" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>206</v>
       </c>
@@ -10916,8 +11303,10 @@
       <c r="M155" s="1">
         <v>0.25841833216945598</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P155" s="17"/>
+      <c r="R155" s="18"/>
+    </row>
+    <row r="156" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>207</v>
       </c>
@@ -10954,8 +11343,10 @@
       <c r="M156" s="1">
         <v>0.44126130406091402</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P156" s="17"/>
+      <c r="R156" s="18"/>
+    </row>
+    <row r="157" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>208</v>
       </c>
@@ -10992,8 +11383,10 @@
       <c r="M157" s="1">
         <v>0.55478874282906898</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P157" s="17"/>
+      <c r="R157" s="18"/>
+    </row>
+    <row r="158" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>209</v>
       </c>
@@ -11030,8 +11423,10 @@
       <c r="M158" s="1">
         <v>7.4647912822028401E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P158" s="17"/>
+      <c r="R158" s="18"/>
+    </row>
+    <row r="159" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>210</v>
       </c>
@@ -11068,8 +11463,10 @@
       <c r="M159" s="1">
         <v>0.33345427941455502</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P159" s="17"/>
+      <c r="R159" s="18"/>
+    </row>
+    <row r="160" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>211</v>
       </c>
@@ -11106,8 +11503,10 @@
       <c r="M160" s="1">
         <v>9.0857029569318098E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P160" s="17"/>
+      <c r="R160" s="18"/>
+    </row>
+    <row r="161" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>212</v>
       </c>
@@ -11144,8 +11543,10 @@
       <c r="M161" s="1">
         <v>0.54092323522879904</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P161" s="17"/>
+      <c r="R161" s="18"/>
+    </row>
+    <row r="162" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>213</v>
       </c>
@@ -11182,8 +11583,10 @@
       <c r="M162" s="1">
         <v>0.44211005611098197</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P162" s="17"/>
+      <c r="R162" s="18"/>
+    </row>
+    <row r="163" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>214</v>
       </c>
@@ -11220,8 +11623,10 @@
       <c r="M163" s="1">
         <v>0.33418984262555101</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P163" s="17"/>
+      <c r="R163" s="18"/>
+    </row>
+    <row r="164" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>215</v>
       </c>
@@ -11258,8 +11663,10 @@
       <c r="M164" s="1">
         <v>0.54299198414000005</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P164" s="17"/>
+      <c r="R164" s="18"/>
+    </row>
+    <row r="165" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>216</v>
       </c>
@@ -11296,8 +11703,10 @@
       <c r="M165" s="1">
         <v>0.54657088370922802</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P165" s="17"/>
+      <c r="R165" s="18"/>
+    </row>
+    <row r="166" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>217</v>
       </c>
@@ -11334,8 +11743,10 @@
       <c r="M166" s="1">
         <v>0.209918309922732</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P166" s="17"/>
+      <c r="R166" s="18"/>
+    </row>
+    <row r="167" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>218</v>
       </c>
@@ -11372,8 +11783,10 @@
       <c r="M167" s="1">
         <v>0.31474439232310802</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P167" s="17"/>
+      <c r="R167" s="18"/>
+    </row>
+    <row r="168" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>219</v>
       </c>
@@ -11410,8 +11823,10 @@
       <c r="M168" s="1">
         <v>0.58338932980239</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P168" s="17"/>
+      <c r="R168" s="18"/>
+    </row>
+    <row r="169" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>220</v>
       </c>
@@ -11448,8 +11863,10 @@
       <c r="M169" s="1">
         <v>0.56789097539807998</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P169" s="17"/>
+      <c r="R169" s="18"/>
+    </row>
+    <row r="170" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>221</v>
       </c>
@@ -11486,8 +11903,10 @@
       <c r="M170" s="1">
         <v>0.35559261481967303</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P170" s="17"/>
+      <c r="R170" s="18"/>
+    </row>
+    <row r="171" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>222</v>
       </c>
@@ -11524,8 +11943,10 @@
       <c r="M171" s="1">
         <v>0.55770466421797704</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P171" s="17"/>
+      <c r="R171" s="18"/>
+    </row>
+    <row r="172" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>223</v>
       </c>
@@ -11562,8 +11983,10 @@
       <c r="M172" s="1">
         <v>0.489690727446424</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P172" s="17"/>
+      <c r="R172" s="18"/>
+    </row>
+    <row r="173" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>224</v>
       </c>
@@ -11600,8 +12023,10 @@
       <c r="M173" s="1">
         <v>0.20387858358119501</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P173" s="17"/>
+      <c r="R173" s="18"/>
+    </row>
+    <row r="174" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>225</v>
       </c>
@@ -11638,8 +12063,10 @@
       <c r="M174" s="1">
         <v>0.53491652920370503</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P174" s="17"/>
+      <c r="R174" s="18"/>
+    </row>
+    <row r="175" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>226</v>
       </c>
@@ -11676,8 +12103,10 @@
       <c r="M175" s="1">
         <v>0.37993410009934098</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P175" s="17"/>
+      <c r="R175" s="18"/>
+    </row>
+    <row r="176" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>227</v>
       </c>
@@ -11714,8 +12143,10 @@
       <c r="M176" s="1">
         <v>0.62087577313317399</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P176" s="17"/>
+      <c r="R176" s="18"/>
+    </row>
+    <row r="177" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>228</v>
       </c>
@@ -11752,8 +12183,10 @@
       <c r="M177" s="1">
         <v>0.55637034609418601</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P177" s="17"/>
+      <c r="R177" s="18"/>
+    </row>
+    <row r="178" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>229</v>
       </c>
@@ -11790,8 +12223,10 @@
       <c r="M178" s="1">
         <v>0.65696438201226803</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P178" s="17"/>
+      <c r="R178" s="18"/>
+    </row>
+    <row r="179" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>230</v>
       </c>
@@ -11828,8 +12263,10 @@
       <c r="M179" s="1">
         <v>0.34208531677932003</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P179" s="17"/>
+      <c r="R179" s="18"/>
+    </row>
+    <row r="180" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>231</v>
       </c>
@@ -11866,8 +12303,10 @@
       <c r="M180" s="1">
         <v>0.48806962505579998</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P180" s="17"/>
+      <c r="R180" s="18"/>
+    </row>
+    <row r="181" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>232</v>
       </c>
@@ -11904,8 +12343,10 @@
       <c r="M181" s="1">
         <v>0.551361950083608</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P181" s="17"/>
+      <c r="R181" s="18"/>
+    </row>
+    <row r="182" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>233</v>
       </c>
@@ -11942,8 +12383,10 @@
       <c r="M182" s="1">
         <v>0.55097484095618898</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P182" s="17"/>
+      <c r="R182" s="18"/>
+    </row>
+    <row r="183" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>234</v>
       </c>
@@ -11980,8 +12423,10 @@
       <c r="M183" s="1">
         <v>0.629497705405755</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P183" s="17"/>
+      <c r="R183" s="18"/>
+    </row>
+    <row r="184" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>235</v>
       </c>
@@ -12018,8 +12463,10 @@
       <c r="M184" s="1">
         <v>0.60789269422883596</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P184" s="17"/>
+      <c r="R184" s="18"/>
+    </row>
+    <row r="185" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>236</v>
       </c>
@@ -12056,8 +12503,10 @@
       <c r="M185" s="1">
         <v>0.113746695945034</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P185" s="17"/>
+      <c r="R185" s="18"/>
+    </row>
+    <row r="186" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>237</v>
       </c>
@@ -12094,8 +12543,10 @@
       <c r="M186" s="1">
         <v>0.56924232306301503</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P186" s="17"/>
+      <c r="R186" s="18"/>
+    </row>
+    <row r="187" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>238</v>
       </c>
@@ -12132,8 +12583,10 @@
       <c r="M187" s="1">
         <v>0.49303971682492298</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P187" s="17"/>
+      <c r="R187" s="18"/>
+    </row>
+    <row r="188" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>239</v>
       </c>
@@ -12170,8 +12623,10 @@
       <c r="M188" s="1">
         <v>0.68146184332098803</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P188" s="17"/>
+      <c r="R188" s="18"/>
+    </row>
+    <row r="189" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>240</v>
       </c>
@@ -12208,8 +12663,10 @@
       <c r="M189" s="1">
         <v>0.56160611423296403</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P189" s="17"/>
+      <c r="R189" s="18"/>
+    </row>
+    <row r="190" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>241</v>
       </c>
@@ -12246,8 +12703,10 @@
       <c r="M190" s="1">
         <v>0.25919837263256801</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P190" s="17"/>
+      <c r="R190" s="18"/>
+    </row>
+    <row r="191" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>242</v>
       </c>
@@ -12284,8 +12743,10 @@
       <c r="M191" s="1">
         <v>0.68736654702824496</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P191" s="17"/>
+      <c r="R191" s="18"/>
+    </row>
+    <row r="192" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>243</v>
       </c>
@@ -12322,8 +12783,10 @@
       <c r="M192" s="1">
         <v>0.53931937163000598</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P192" s="17"/>
+      <c r="R192" s="18"/>
+    </row>
+    <row r="193" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>244</v>
       </c>
@@ -12360,8 +12823,10 @@
       <c r="M193" s="1">
         <v>0.51040698591512301</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P193" s="17"/>
+      <c r="R193" s="18"/>
+    </row>
+    <row r="194" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>245</v>
       </c>
@@ -12398,8 +12863,10 @@
       <c r="M194" s="1">
         <v>0.51248045559092803</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P194" s="17"/>
+      <c r="R194" s="18"/>
+    </row>
+    <row r="195" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>246</v>
       </c>
@@ -12436,8 +12903,10 @@
       <c r="M195" s="1">
         <v>0.59456396742524498</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P195" s="17"/>
+      <c r="R195" s="18"/>
+    </row>
+    <row r="196" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>247</v>
       </c>
@@ -12474,8 +12943,10 @@
       <c r="M196" s="1">
         <v>0.51761281101752599</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P196" s="17"/>
+      <c r="R196" s="18"/>
+    </row>
+    <row r="197" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>248</v>
       </c>
@@ -12512,8 +12983,10 @@
       <c r="M197" s="1">
         <v>0.57820478956091304</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P197" s="17"/>
+      <c r="R197" s="18"/>
+    </row>
+    <row r="198" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>249</v>
       </c>
@@ -12550,8 +13023,10 @@
       <c r="M198" s="1">
         <v>0.62705362027596401</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P198" s="17"/>
+      <c r="R198" s="18"/>
+    </row>
+    <row r="199" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>250</v>
       </c>
@@ -12588,8 +13063,10 @@
       <c r="M199" s="1">
         <v>0.540764510217005</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P199" s="17"/>
+      <c r="R199" s="18"/>
+    </row>
+    <row r="200" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>251</v>
       </c>
@@ -12626,8 +13103,10 @@
       <c r="M200" s="1">
         <v>0.59246840435524395</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P200" s="17"/>
+      <c r="R200" s="18"/>
+    </row>
+    <row r="201" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>252</v>
       </c>
@@ -12664,8 +13143,10 @@
       <c r="M201" s="1">
         <v>0.237581938394441</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P201" s="17"/>
+      <c r="R201" s="18"/>
+    </row>
+    <row r="202" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>253</v>
       </c>
@@ -12702,8 +13183,10 @@
       <c r="M202" s="1">
         <v>0.54576887360509496</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P202" s="17"/>
+      <c r="R202" s="18"/>
+    </row>
+    <row r="203" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>254</v>
       </c>
@@ -12740,8 +13223,10 @@
       <c r="M203" s="1">
         <v>0.57060968441731996</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P203" s="17"/>
+      <c r="R203" s="18"/>
+    </row>
+    <row r="204" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>255</v>
       </c>
@@ -12778,8 +13263,10 @@
       <c r="M204" s="1">
         <v>0.51860101757120403</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P204" s="17"/>
+      <c r="R204" s="18"/>
+    </row>
+    <row r="205" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>256</v>
       </c>
@@ -12816,8 +13303,10 @@
       <c r="M205" s="1">
         <v>0.52022942676830097</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P205" s="17"/>
+      <c r="R205" s="18"/>
+    </row>
+    <row r="206" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>257</v>
       </c>
@@ -12854,8 +13343,10 @@
       <c r="M206" s="1">
         <v>0.48361015518240402</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P206" s="17"/>
+      <c r="R206" s="18"/>
+    </row>
+    <row r="207" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>258</v>
       </c>
@@ -12892,8 +13383,10 @@
       <c r="M207" s="1">
         <v>0.55219894814468096</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P207" s="17"/>
+      <c r="R207" s="18"/>
+    </row>
+    <row r="208" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>259</v>
       </c>
@@ -12930,8 +13423,10 @@
       <c r="M208" s="1">
         <v>0.561249206076195</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P208" s="17"/>
+      <c r="R208" s="18"/>
+    </row>
+    <row r="209" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>260</v>
       </c>
@@ -12968,8 +13463,10 @@
       <c r="M209" s="1">
         <v>0.31054726350134498</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P209" s="17"/>
+      <c r="R209" s="18"/>
+    </row>
+    <row r="210" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>261</v>
       </c>
@@ -13006,8 +13503,10 @@
       <c r="M210" s="1">
         <v>0.48811186738367801</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P210" s="17"/>
+      <c r="R210" s="18"/>
+    </row>
+    <row r="211" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>262</v>
       </c>
@@ -13044,8 +13543,10 @@
       <c r="M211" s="1">
         <v>0.34945823050295199</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P211" s="17"/>
+      <c r="R211" s="18"/>
+    </row>
+    <row r="212" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>263</v>
       </c>
@@ -13082,8 +13583,10 @@
       <c r="M212" s="1">
         <v>0.72214794395053405</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P212" s="17"/>
+      <c r="R212" s="18"/>
+    </row>
+    <row r="213" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>264</v>
       </c>
@@ -13120,8 +13623,10 @@
       <c r="M213" s="1">
         <v>0.22822744727879599</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P213" s="17"/>
+      <c r="R213" s="18"/>
+    </row>
+    <row r="214" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>265</v>
       </c>
@@ -13158,8 +13663,10 @@
       <c r="M214" s="1">
         <v>0.50192111693896402</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P214" s="17"/>
+      <c r="R214" s="18"/>
+    </row>
+    <row r="215" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>266</v>
       </c>
@@ -13196,8 +13703,10 @@
       <c r="M215" s="1">
         <v>0.57737937918109306</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P215" s="17"/>
+      <c r="R215" s="18"/>
+    </row>
+    <row r="216" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>267</v>
       </c>
@@ -13234,8 +13743,10 @@
       <c r="M216" s="1">
         <v>0.43562791499046899</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P216" s="17"/>
+      <c r="R216" s="18"/>
+    </row>
+    <row r="217" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>268</v>
       </c>
@@ -13272,8 +13783,10 @@
       <c r="M217" s="1">
         <v>0.62538322718103601</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P217" s="17"/>
+      <c r="R217" s="18"/>
+    </row>
+    <row r="218" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>269</v>
       </c>
@@ -13310,8 +13823,10 @@
       <c r="M218" s="1">
         <v>0.4320308649929</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P218" s="17"/>
+      <c r="R218" s="18"/>
+    </row>
+    <row r="219" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>270</v>
       </c>
@@ -13348,8 +13863,10 @@
       <c r="M219" s="1">
         <v>0.40245922980146098</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P219" s="17"/>
+      <c r="R219" s="18"/>
+    </row>
+    <row r="220" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>271</v>
       </c>
@@ -13386,8 +13903,10 @@
       <c r="M220" s="1">
         <v>0.46007422485347599</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P220" s="17"/>
+      <c r="R220" s="18"/>
+    </row>
+    <row r="221" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>272</v>
       </c>
@@ -13424,8 +13943,10 @@
       <c r="M221" s="1">
         <v>0.43680205739727002</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P221" s="17"/>
+      <c r="R221" s="18"/>
+    </row>
+    <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>273</v>
       </c>
@@ -13462,8 +13983,10 @@
       <c r="M222" s="1">
         <v>0.34800496568346601</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P222" s="17"/>
+      <c r="R222" s="18"/>
+    </row>
+    <row r="223" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>274</v>
       </c>
@@ -13500,8 +14023,10 @@
       <c r="M223" s="1">
         <v>0.55689983926083297</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P223" s="17"/>
+      <c r="R223" s="18"/>
+    </row>
+    <row r="224" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>275</v>
       </c>
@@ -13538,8 +14063,10 @@
       <c r="M224" s="1">
         <v>0.72044553509739295</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P224" s="17"/>
+      <c r="R224" s="18"/>
+    </row>
+    <row r="225" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>276</v>
       </c>
@@ -13576,22 +14103,42 @@
       <c r="M225" s="1">
         <v>0.51699749378553606</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="P225" s="17"/>
+      <c r="R225" s="18"/>
+    </row>
+    <row r="226" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P226" s="17"/>
+      <c r="R226" s="18"/>
+    </row>
+    <row r="227" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P227" s="17"/>
+      <c r="R227" s="18"/>
+    </row>
+    <row r="228" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P228" s="17"/>
+      <c r="R228" s="18"/>
+    </row>
+    <row r="229" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P229" s="17"/>
+      <c r="R229" s="18"/>
+    </row>
+    <row r="230" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P230" s="17"/>
+      <c r="R230" s="18"/>
+    </row>
+    <row r="231" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P231" s="17"/>
+      <c r="R231" s="18"/>
+    </row>
+    <row r="232" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14353,6 +14900,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O9:R231">
+    <sortCondition ref="Q10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -14362,7 +14912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15574,7 +16126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15754,38 +16308,154 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0.91963700000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>0.87359600000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23">
+        <v>0.55346099999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24">
+        <v>0.50437299999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33">
+        <v>4.6040499999999998E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.366176</v>
+      </c>
+      <c r="E33">
+        <v>0.41526400000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="16">
+        <v>2.1790400000000001E-95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34">
+        <v>0.32013599999999998</v>
+      </c>
+      <c r="E34">
+        <v>0.36922300000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35">
+        <v>4.9087699999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>1.25129E-13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Notes/Spring2021/Meta_DPI_results.xlsx
+++ b/Notes/Spring2021/Meta_DPI_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Research_Evan/Raji_Summer2019_atom/Notes/Spring2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5885D8D-11F9-E044-A4B5-1613B1A58B37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC84B89-40A2-6447-A3FB-331ACAB4B1B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="324">
   <si>
     <t>Leave one out</t>
   </si>
@@ -1021,6 +1021,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1132,7 +1135,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5058,8 +5061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5074,6 +5077,9 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O1" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5349,6 +5355,24 @@
       <c r="M6" s="1">
         <v>0.40886694585920003</v>
       </c>
+      <c r="O6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -5387,6 +5411,29 @@
       <c r="M7" s="1">
         <v>0.54540787212387798</v>
       </c>
+      <c r="O7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P7" s="1">
+        <f>AVERAGE(I3:I225)</f>
+        <v>0.29389754304530868</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>AVERAGE(J3:J225)</f>
+        <v>0.32496257320455063</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ref="Q7:T7" si="3">AVERAGE(K3:K225)</f>
+        <v>0.31784381543980922</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.3862950534679504</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46166807232767737</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -5425,6 +5472,29 @@
       <c r="M8" s="1">
         <v>0.25993873597772998</v>
       </c>
+      <c r="O8" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="P8">
+        <f>STDEV(I3:I226)</f>
+        <v>0.18871436726567636</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:T8" si="4">STDEV(J3:J226)</f>
+        <v>0.16138258689239868</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>0.23709678357939989</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>0.17316902000317491</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>0.15839513937982247</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -5463,8 +5533,29 @@
       <c r="M9" s="1">
         <v>0.62324899656196497</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="R9" s="18"/>
+      <c r="O9" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="P9" s="19">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,233)</f>
+        <v>2.4231209684758611E-2</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" ref="Q9" si="5">_xlfn.CONFIDENCE.NORM(0.05,Q8,233)</f>
+        <v>2.072176781830927E-2</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" ref="R9" si="6">_xlfn.CONFIDENCE.NORM(0.05,R8,233)</f>
+        <v>3.0443584988980355E-2</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" ref="S9" si="7">_xlfn.CONFIDENCE.NORM(0.05,S8,233)</f>
+        <v>2.2235163625320225E-2</v>
+      </c>
+      <c r="T9" s="19">
+        <f t="shared" ref="T9" si="8">_xlfn.CONFIDENCE.NORM(0.05,T8,233)</f>
+        <v>2.0338175047137093E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
